--- a/EXCEL/my pratice/day5 data validation.xlsx
+++ b/EXCEL/my pratice/day5 data validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911EAE9-CCE6-4C99-9408-08EE3C40FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7900ADE-FA55-4D1D-90BF-AE37386B77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0580FCEC-4349-4BE9-BBD1-B06807009B1C}"/>
+    <workbookView minimized="1" xWindow="12264" yWindow="2604" windowWidth="11124" windowHeight="9984" activeTab="1" xr2:uid="{0580FCEC-4349-4BE9-BBD1-B06807009B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="data validation" sheetId="1" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
